--- a/NumberPerfect/ANALISIS.xlsx
+++ b/NumberPerfect/ANALISIS.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC25\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC22\Desktop\codigos-java\NumberPerfect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F771B7AB-B9F3-4AF3-B156-4B85FF43A388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A2FDC8-7609-42E4-B507-F0AFA7233724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{1A0EAFA8-A63F-42CB-BA09-3F6C330C82EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A0EAFA8-A63F-42CB-BA09-3F6C330C82EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$D$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$D$4:$I$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$D$5:$I$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$E$5:$I$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$L$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$L$19</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$D$5:$D$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$J$5:$J$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Valor</t>
   </si>
@@ -90,12 +86,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -187,16 +201,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,12 +246,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Grafica 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34301377952755907"/>
-          <c:y val="0"/>
+          <c:x val="0.39940302141632023"/>
+          <c:y val="4.1666666666666664E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -267,62 +309,26 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:line3DChart>
-        <c:grouping val="standard"/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$D$5:$D$14</c:f>
@@ -336,7 +342,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>248</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>496</c:v>
@@ -351,7 +357,7 @@
                   <c:v>1605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18</c:v>
@@ -369,34 +375,34 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>602080</c:v>
+                  <c:v>260520</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>394560</c:v>
+                  <c:v>326420</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>440040</c:v>
+                  <c:v>372560</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>419700</c:v>
+                  <c:v>299820</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>478120</c:v>
+                  <c:v>314680</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>1310068</c:v>
+                  <c:v>270860</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>357860</c:v>
+                  <c:v>264140</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>302240</c:v>
+                  <c:v>231380</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>307820</c:v>
+                  <c:v>205940</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>205680</c:v>
+                  <c:v>211400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,10 +422,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="877785823"/>
         <c:axId val="877778751"/>
-        <c:axId val="925562959"/>
-      </c:line3DChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="877785823"/>
         <c:scaling>
@@ -527,14 +533,254 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:serAx>
-        <c:axId val="925562959"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>grafica 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$30:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$30:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4688260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8653240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>299820</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>314680</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>270860</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>264140</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>231380</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>205940</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>211400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D6C-4866-A550-6A3831FEC7EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="952816287"/>
+        <c:axId val="952815327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="952816287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -570,9 +816,69 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877778751"/>
+        <c:crossAx val="952815327"/>
         <c:crosses val="autoZero"/>
-      </c:serAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="952815327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="952816287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -582,7 +888,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -665,6 +971,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
   <cs:axisTitle>
@@ -1149,6 +1495,522 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1186,14 +2048,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1214,6 +2076,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA89F418-257C-A965-F9F8-77E8A5178AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1519,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D08E38-5E11-42FC-85BD-F05074DC41C2}">
-  <dimension ref="D2:J14"/>
+  <dimension ref="D2:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,25 +2448,25 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1577,23 +2475,23 @@
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>804900</v>
+        <v>267000</v>
       </c>
       <c r="F5" s="1">
-        <v>491100</v>
+        <v>245900</v>
       </c>
       <c r="G5" s="1">
-        <v>446200</v>
+        <v>239700</v>
       </c>
       <c r="H5" s="1">
-        <v>464400</v>
+        <v>249200</v>
       </c>
       <c r="I5" s="1">
-        <v>803800</v>
-      </c>
-      <c r="J5" s="2">
+        <v>300800</v>
+      </c>
+      <c r="J5" s="9">
         <f>SUM(E5:I5)/5</f>
-        <v>602080</v>
+        <v>260520</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1601,47 +2499,47 @@
         <v>28</v>
       </c>
       <c r="E6" s="1">
-        <v>410100</v>
+        <v>249400</v>
       </c>
       <c r="F6" s="1">
-        <v>487000</v>
+        <v>247800</v>
       </c>
       <c r="G6" s="1">
-        <v>495400</v>
+        <v>306800</v>
       </c>
       <c r="H6" s="1">
-        <v>158100</v>
+        <v>402800</v>
       </c>
       <c r="I6" s="1">
-        <v>422200</v>
-      </c>
-      <c r="J6" s="2">
+        <v>425300</v>
+      </c>
+      <c r="J6" s="9">
         <f>SUM(E6:I6)/5</f>
-        <v>394560</v>
+        <v>326420</v>
       </c>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1">
-        <v>496800</v>
+        <v>254800</v>
       </c>
       <c r="F7" s="1">
-        <v>448500</v>
+        <v>301500</v>
       </c>
       <c r="G7" s="1">
-        <v>443100</v>
+        <v>493600</v>
       </c>
       <c r="H7" s="1">
-        <v>765600</v>
+        <v>407000</v>
       </c>
       <c r="I7" s="1">
-        <v>46200</v>
-      </c>
-      <c r="J7" s="2">
+        <v>405900</v>
+      </c>
+      <c r="J7" s="9">
         <f>SUM(E7:I7)/5</f>
-        <v>440040</v>
+        <v>372560</v>
       </c>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
@@ -1649,23 +2547,23 @@
         <v>496</v>
       </c>
       <c r="E8" s="1">
-        <v>623000</v>
+        <v>249900</v>
       </c>
       <c r="F8" s="1">
-        <v>502500</v>
+        <v>255100</v>
       </c>
       <c r="G8" s="1">
-        <v>450600</v>
+        <v>254000</v>
       </c>
       <c r="H8" s="1">
-        <v>481500</v>
+        <v>348500</v>
       </c>
       <c r="I8" s="1">
-        <v>40900</v>
-      </c>
-      <c r="J8" s="2">
+        <v>391600</v>
+      </c>
+      <c r="J8" s="9">
         <f>SUM(E8:I8)/5</f>
-        <v>419700</v>
+        <v>299820</v>
       </c>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
@@ -1673,23 +2571,23 @@
         <v>8128</v>
       </c>
       <c r="E9" s="1">
-        <v>909400</v>
+        <v>305700</v>
       </c>
       <c r="F9" s="1">
-        <v>469300</v>
+        <v>299000</v>
       </c>
       <c r="G9" s="1">
-        <v>484600</v>
+        <v>345200</v>
       </c>
       <c r="H9" s="1">
-        <v>485800</v>
+        <v>296200</v>
       </c>
       <c r="I9" s="1">
-        <v>41500</v>
-      </c>
-      <c r="J9" s="2">
+        <v>327300</v>
+      </c>
+      <c r="J9" s="9">
         <f>SUM(E9:I9)/5</f>
-        <v>478120</v>
+        <v>314680</v>
       </c>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
@@ -1697,23 +2595,23 @@
         <v>92</v>
       </c>
       <c r="E10" s="1">
-        <v>410400</v>
+        <v>260700</v>
       </c>
       <c r="F10" s="1">
-        <v>476100</v>
+        <v>266900</v>
       </c>
       <c r="G10" s="1">
-        <v>497940</v>
+        <v>322700</v>
       </c>
       <c r="H10" s="1">
-        <v>481500</v>
+        <v>253500</v>
       </c>
       <c r="I10" s="1">
-        <v>4684400</v>
-      </c>
-      <c r="J10" s="1">
+        <v>250500</v>
+      </c>
+      <c r="J10" s="10">
         <f>SUM(E10:I10) /5</f>
-        <v>1310068</v>
+        <v>270860</v>
       </c>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
@@ -1721,47 +2619,47 @@
         <v>1605</v>
       </c>
       <c r="E11" s="1">
-        <v>278400</v>
+        <v>272600</v>
       </c>
       <c r="F11" s="1">
-        <v>265000</v>
+        <v>259400</v>
       </c>
       <c r="G11" s="1">
-        <v>451400</v>
+        <v>261900</v>
       </c>
       <c r="H11" s="1">
-        <v>388200</v>
+        <v>258100</v>
       </c>
       <c r="I11" s="1">
-        <v>406300</v>
-      </c>
-      <c r="J11" s="1">
+        <v>268700</v>
+      </c>
+      <c r="J11" s="10">
         <f>SUM(E11:I11)/5</f>
-        <v>357860</v>
+        <v>264140</v>
       </c>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1">
-        <v>329700</v>
+        <v>256300</v>
       </c>
       <c r="F12" s="1">
-        <v>372800</v>
+        <v>248200</v>
       </c>
       <c r="G12" s="1">
-        <v>408200</v>
+        <v>258300</v>
       </c>
       <c r="H12" s="1">
-        <v>249200</v>
+        <v>394200</v>
       </c>
       <c r="I12" s="1">
-        <v>481000</v>
-      </c>
-      <c r="J12" s="1">
+        <v>256200</v>
+      </c>
+      <c r="J12" s="10">
         <f>SUM(F12:I12)/5</f>
-        <v>302240</v>
+        <v>231380</v>
       </c>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
@@ -1769,23 +2667,23 @@
         <v>18</v>
       </c>
       <c r="E13" s="1">
-        <v>296400</v>
+        <v>249500</v>
       </c>
       <c r="F13" s="1">
-        <v>432800</v>
+        <v>252500</v>
       </c>
       <c r="G13" s="1">
-        <v>449600</v>
+        <v>258800</v>
       </c>
       <c r="H13" s="1">
-        <v>379700</v>
+        <v>260600</v>
       </c>
       <c r="I13" s="1">
-        <v>277000</v>
-      </c>
-      <c r="J13" s="1">
+        <v>257800</v>
+      </c>
+      <c r="J13" s="10">
         <f>SUM(F13:I13)/5</f>
-        <v>307820</v>
+        <v>205940</v>
       </c>
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.25">
@@ -1793,10 +2691,10 @@
         <v>2000</v>
       </c>
       <c r="E14" s="1">
-        <v>271200</v>
+        <v>258500</v>
       </c>
       <c r="F14" s="1">
-        <v>235400</v>
+        <v>261500</v>
       </c>
       <c r="G14" s="1">
         <v>265900</v>
@@ -1805,11 +2703,296 @@
         <v>266800</v>
       </c>
       <c r="I14" s="1">
-        <v>260300</v>
-      </c>
-      <c r="J14" s="1">
+        <v>262800</v>
+      </c>
+      <c r="J14" s="10">
         <f>SUM(F14:I14)/5</f>
-        <v>205680</v>
+        <v>211400</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="11">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11">
+        <v>5205300</v>
+      </c>
+      <c r="F30" s="11">
+        <v>4379900</v>
+      </c>
+      <c r="G30" s="11">
+        <v>4909100</v>
+      </c>
+      <c r="H30" s="11">
+        <v>4595600</v>
+      </c>
+      <c r="I30" s="11">
+        <v>4351400</v>
+      </c>
+      <c r="J30" s="9">
+        <f>SUM(E30:I30)/5</f>
+        <v>4688260</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="1">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1">
+        <v>9063800</v>
+      </c>
+      <c r="F31" s="1">
+        <v>8147400</v>
+      </c>
+      <c r="G31" s="1">
+        <v>8134100</v>
+      </c>
+      <c r="H31" s="1">
+        <v>9311900</v>
+      </c>
+      <c r="I31" s="1">
+        <v>8609000</v>
+      </c>
+      <c r="J31" s="9">
+        <f>SUM(E31:I31)/5</f>
+        <v>8653240</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <v>123</v>
+      </c>
+      <c r="E32" s="1">
+        <v>254800</v>
+      </c>
+      <c r="F32" s="1">
+        <v>301500</v>
+      </c>
+      <c r="G32" s="1">
+        <v>493600</v>
+      </c>
+      <c r="H32" s="1">
+        <v>407000</v>
+      </c>
+      <c r="I32" s="1">
+        <v>405900</v>
+      </c>
+      <c r="J32" s="9">
+        <f>SUM(E32:I32)/5</f>
+        <v>372560</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="11">
+        <v>496</v>
+      </c>
+      <c r="E33" s="1">
+        <v>249900</v>
+      </c>
+      <c r="F33" s="1">
+        <v>255100</v>
+      </c>
+      <c r="G33" s="1">
+        <v>254000</v>
+      </c>
+      <c r="H33" s="1">
+        <v>348500</v>
+      </c>
+      <c r="I33" s="1">
+        <v>391600</v>
+      </c>
+      <c r="J33" s="9">
+        <f>SUM(E33:I33)/5</f>
+        <v>299820</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="11">
+        <v>8128</v>
+      </c>
+      <c r="E34" s="1">
+        <v>305700</v>
+      </c>
+      <c r="F34" s="1">
+        <v>299000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>345200</v>
+      </c>
+      <c r="H34" s="1">
+        <v>296200</v>
+      </c>
+      <c r="I34" s="1">
+        <v>327300</v>
+      </c>
+      <c r="J34" s="9">
+        <f>SUM(E34:I34)/5</f>
+        <v>314680</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="11">
+        <v>92</v>
+      </c>
+      <c r="E35" s="1">
+        <v>260700</v>
+      </c>
+      <c r="F35" s="1">
+        <v>266900</v>
+      </c>
+      <c r="G35" s="1">
+        <v>322700</v>
+      </c>
+      <c r="H35" s="1">
+        <v>253500</v>
+      </c>
+      <c r="I35" s="1">
+        <v>250500</v>
+      </c>
+      <c r="J35" s="10">
+        <f>SUM(E35:I35) /5</f>
+        <v>270860</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="11">
+        <v>1605</v>
+      </c>
+      <c r="E36" s="1">
+        <v>272600</v>
+      </c>
+      <c r="F36" s="1">
+        <v>259400</v>
+      </c>
+      <c r="G36" s="1">
+        <v>261900</v>
+      </c>
+      <c r="H36" s="1">
+        <v>258100</v>
+      </c>
+      <c r="I36" s="1">
+        <v>268700</v>
+      </c>
+      <c r="J36" s="10">
+        <f>SUM(E36:I36)/5</f>
+        <v>264140</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="11">
+        <v>55</v>
+      </c>
+      <c r="E37" s="1">
+        <v>256300</v>
+      </c>
+      <c r="F37" s="1">
+        <v>248200</v>
+      </c>
+      <c r="G37" s="1">
+        <v>258300</v>
+      </c>
+      <c r="H37" s="1">
+        <v>394200</v>
+      </c>
+      <c r="I37" s="1">
+        <v>256200</v>
+      </c>
+      <c r="J37" s="10">
+        <f>SUM(F37:I37)/5</f>
+        <v>231380</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="11">
+        <v>18</v>
+      </c>
+      <c r="E38" s="1">
+        <v>249500</v>
+      </c>
+      <c r="F38" s="1">
+        <v>252500</v>
+      </c>
+      <c r="G38" s="1">
+        <v>258800</v>
+      </c>
+      <c r="H38" s="1">
+        <v>260600</v>
+      </c>
+      <c r="I38" s="1">
+        <v>257800</v>
+      </c>
+      <c r="J38" s="10">
+        <f>SUM(F38:I38)/5</f>
+        <v>205940</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>258500</v>
+      </c>
+      <c r="F39" s="1">
+        <v>261500</v>
+      </c>
+      <c r="G39" s="1">
+        <v>265900</v>
+      </c>
+      <c r="H39" s="1">
+        <v>266800</v>
+      </c>
+      <c r="I39" s="1">
+        <v>262800</v>
+      </c>
+      <c r="J39" s="10">
+        <f>SUM(F39:I39)/5</f>
+        <v>211400</v>
       </c>
     </row>
   </sheetData>
